--- a/results/CV/2023/3_category/report_df.xlsx
+++ b/results/CV/2023/3_category/report_df.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_R\OneDrive\Desktop\REPO\TS_ANALYSIS\results\CV\2023\3_category\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF748974-090E-422C-A4F0-F07345AF9BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,11 +52,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,11 +65,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,38 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,24 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -468,96 +437,96 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>44927.145833333343</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
+        <v>44927.14583333334</v>
+      </c>
+      <c r="D2">
         <v>99087</v>
       </c>
-      <c r="E2" s="3">
-        <v>44927.365277777782</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>44995.95625</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.10947</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>99087</v>
       </c>
-      <c r="C3" s="3">
-        <v>44927.365277777782</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
+        <v>44995.95625</v>
+      </c>
+      <c r="D3">
         <v>196845</v>
       </c>
-      <c r="E3" s="3">
-        <v>44927.556250000001</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>45063.84375</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.11094999999999999</v>
+      <c r="G3">
+        <v>0.11095</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>196845</v>
       </c>
-      <c r="C4" s="3">
-        <v>44927.556250000001</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
+        <v>45063.84375</v>
+      </c>
+      <c r="D4">
         <v>304789</v>
       </c>
-      <c r="E4" s="3">
-        <v>44927.572916666657</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2">
+        <v>45138.80486111111</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>0.10288</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>304789</v>
       </c>
-      <c r="C5" s="3">
-        <v>44927.572916666657</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
+        <v>45138.80486111111</v>
+      </c>
+      <c r="D5">
         <v>437270</v>
       </c>
-      <c r="E5" s="3">
-        <v>44927.711805555547</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>45230.80555555555</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>8.2650000000000001E-2</v>
+      <c r="G5">
+        <v>0.08265</v>
       </c>
     </row>
   </sheetData>
